--- a/input/国美后台数据/美票宝-WJRTB-MYLC-RYBL-32 投资明细.xlsx
+++ b/input/国美后台数据/美票宝-WJRTB-MYLC-RYBL-32 投资明细.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[温金中心]Winfae\❀温金中心 · 事业部❀\【融通宝】\❀❀❀国美❀❀❀\5. 后台数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -118,6 +113,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -519,28 +515,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="17.399999999999999">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -556,7 +553,7 @@
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:12" ht="17.399999999999999">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -572,7 +569,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="18">
+    <row r="3" spans="1:12" ht="17.399999999999999">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -650,7 +647,7 @@
         <v>665.42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -690,7 +687,7 @@
         <v>48320.61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -730,7 +727,7 @@
         <v>1006.68</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15.6">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15.6">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15.6">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15.6">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
